--- a/xlsx/國教_intext.xlsx
+++ b/xlsx/國教_intext.xlsx
@@ -29,7 +29,7 @@
     <t>國民教育</t>
   </si>
   <si>
-    <t>政策_政策_美國_國教</t>
+    <t>体育运动_体育运动_古罗马_國教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
